--- a/EC/Train Runs and Enforcements 2016-05-16.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-16.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="505">
   <si>
     <t>Train ID</t>
   </si>
@@ -1539,9 +1539,6 @@
   </si>
   <si>
     <t>Onboard in-route failure</t>
-  </si>
-  <si>
-    <t>Ticket Needed</t>
   </si>
   <si>
     <t>Routing at Bright</t>
@@ -2418,8 +2415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK154"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R126" sqref="R126"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q127" sqref="Q127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2441,7 +2438,7 @@
     <col min="15" max="15" width="9.140625" style="4"/>
     <col min="16" max="16" width="6" style="4" customWidth="1"/>
     <col min="17" max="17" width="13.5703125" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" customWidth="1"/>
+    <col min="18" max="18" width="28.7109375" customWidth="1"/>
     <col min="19" max="19" width="4.28515625" customWidth="1"/>
     <col min="20" max="20" width="9" style="55" customWidth="1"/>
     <col min="21" max="21" width="10.140625" style="55" customWidth="1"/>
@@ -12998,7 +12995,7 @@
         <v>50.000000005820766</v>
       </c>
       <c r="Q126" s="62" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="R126" s="62" t="s">
         <v>494</v>
@@ -13341,7 +13338,7 @@
         <v>493</v>
       </c>
       <c r="R130" s="62" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="T130" s="74" t="str">
         <f t="shared" si="20"/>
@@ -13511,7 +13508,7 @@
       <c r="P132" s="13"/>
       <c r="Q132" s="62"/>
       <c r="R132" s="62" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="T132" s="74" t="str">
         <f t="shared" ref="T132:T137" si="30">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E132-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I132+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B132&amp;"%22')),sort:!(Time,asc))"</f>
@@ -13599,7 +13596,7 @@
         <v>493</v>
       </c>
       <c r="R133" s="62" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="T133" s="74" t="str">
         <f t="shared" si="30"/>
@@ -13687,7 +13684,7 @@
         <v>493</v>
       </c>
       <c r="R134" s="62" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="T134" s="74" t="str">
         <f t="shared" si="30"/>
@@ -13856,7 +13853,7 @@
         <v>493</v>
       </c>
       <c r="R136" s="62" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="T136" s="74" t="str">
         <f t="shared" si="30"/>
@@ -14725,7 +14722,7 @@
         <v>96</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -14813,7 +14810,7 @@
         <v>96</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -15417,7 +15414,7 @@
         <v>424</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -15462,7 +15459,7 @@
         <v>424</v>
       </c>
       <c r="N22" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -15507,7 +15504,7 @@
         <v>424</v>
       </c>
       <c r="N23" s="21" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -15552,7 +15549,7 @@
         <v>424</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">

--- a/EC/Train Runs and Enforcements 2016-05-16.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-16.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -2415,8 +2415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK154"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q127" sqref="Q127"/>
+    <sheetView showGridLines="0" topLeftCell="A114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R146" sqref="R146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14509,8 +14509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:K21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15456,7 +15456,7 @@
         <v>CANFIELD</v>
       </c>
       <c r="M22" s="20" t="s">
-        <v>424</v>
+        <v>96</v>
       </c>
       <c r="N22" s="21" t="s">
         <v>504</v>
@@ -15501,7 +15501,7 @@
         <v>GOODNIGHT</v>
       </c>
       <c r="M23" s="20" t="s">
-        <v>424</v>
+        <v>96</v>
       </c>
       <c r="N23" s="21" t="s">
         <v>502</v>
@@ -15546,7 +15546,7 @@
         <v>GOODNIGHT</v>
       </c>
       <c r="M24" s="20" t="s">
-        <v>424</v>
+        <v>96</v>
       </c>
       <c r="N24" s="21" t="s">
         <v>503</v>
@@ -16804,7 +16804,7 @@
       <c r="L55" s="53"/>
       <c r="M55" s="17">
         <f>COUNTIF(M3:M52,"=Y")</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16823,7 +16823,7 @@
       <c r="L56" s="54"/>
       <c r="M56" s="15">
         <f>COUNTA(M3:M52)-M55</f>
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/EC/Train Runs and Enforcements 2016-05-16.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-16.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -2415,8 +2415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK154"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R146" sqref="R146"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14509,8 +14509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView showGridLines="0" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16854,7 +16854,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
